--- a/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_35_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_35_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9294109496327968</v>
+        <v>0.9850716769534482</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7219773974345047</v>
+        <v>0.7731595352204529</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9440324900483447</v>
+        <v>0.7388864383390725</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9250438684705971</v>
+        <v>0.8704687909642307</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9425464696167584</v>
+        <v>0.8427196698655414</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4720293048381778</v>
+        <v>0.0998257649508992</v>
       </c>
       <c r="H2" t="n">
-        <v>1.859138423531839</v>
+        <v>1.516883232485129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7374088295389436</v>
+        <v>0.2133433549547521</v>
       </c>
       <c r="J2" t="n">
-        <v>0.244358323860406</v>
+        <v>0.3872545910617357</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4908836414555277</v>
+        <v>0.3002989348100312</v>
       </c>
       <c r="L2" t="n">
-        <v>1.93595883500379</v>
+        <v>0.4498249671648537</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6870438885822199</v>
+        <v>0.3159521561105403</v>
       </c>
       <c r="N2" t="n">
-        <v>1.015542543200118</v>
+        <v>1.00731183169627</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7162927692960788</v>
+        <v>0.3294028935072936</v>
       </c>
       <c r="P2" t="n">
-        <v>267.5014284176046</v>
+        <v>150.6086579262862</v>
       </c>
       <c r="Q2" t="n">
-        <v>429.6119131250753</v>
+        <v>239.5865931416648</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9293757882724494</v>
+        <v>0.9851540071629626</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7214467317855308</v>
+        <v>0.7725550814072145</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9413944058173479</v>
+        <v>0.7372944717020535</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9232321831301856</v>
+        <v>0.8705757473403753</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9401667673198622</v>
+        <v>0.8424628146319975</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4722644290167243</v>
+        <v>0.0992752224607801</v>
       </c>
       <c r="H3" t="n">
-        <v>1.862686987170019</v>
+        <v>1.520925217917508</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7721673279371186</v>
+        <v>0.2146440744622234</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2502644503388216</v>
+        <v>0.3869348276007622</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5112158459569458</v>
+        <v>0.3007893543874042</v>
       </c>
       <c r="L3" t="n">
-        <v>1.923865862637608</v>
+        <v>0.4487898754812366</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6872149802039564</v>
+        <v>0.3150797081069806</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01555028515102</v>
+        <v>1.007271506695692</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7164711446423611</v>
+        <v>0.3284933035860061</v>
       </c>
       <c r="P3" t="n">
-        <v>267.5004324385994</v>
+        <v>150.6197185222267</v>
       </c>
       <c r="Q3" t="n">
-        <v>429.6109171460701</v>
+        <v>239.5976537376053</v>
       </c>
     </row>
     <row r="4">
@@ -632,602 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.929282995440221</v>
+        <v>0.9852151892105602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7208799465701068</v>
+        <v>0.7719966983280143</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9386434916574488</v>
+        <v>0.7358108464475841</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9213776203372012</v>
+        <v>0.870637627907856</v>
       </c>
       <c r="F4" t="n">
-        <v>0.937691847399829</v>
+        <v>0.8421938233922053</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4728849351131078</v>
+        <v>0.09886609782677783</v>
       </c>
       <c r="H4" t="n">
-        <v>1.866477082515365</v>
+        <v>1.524659128139238</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8084124350102333</v>
+        <v>0.2158562734275729</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2563103580763331</v>
+        <v>0.3867498255921127</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5323615909538636</v>
+        <v>0.3013029455193261</v>
       </c>
       <c r="L4" t="n">
-        <v>1.911993405263453</v>
+        <v>0.4478449657288594</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6876662963335544</v>
+        <v>0.3144297979307588</v>
       </c>
       <c r="N4" t="n">
-        <v>1.015570716600318</v>
+        <v>1.007241539978501</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7169416742339491</v>
+        <v>0.327815725388083</v>
       </c>
       <c r="P4" t="n">
-        <v>267.4978063724597</v>
+        <v>150.6279777831388</v>
       </c>
       <c r="Q4" t="n">
-        <v>429.6082910799304</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>model_35_5_3</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9291333881676399</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7202779943908553</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9357804134421398</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9194821702777546</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9351226939626045</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.4738853596337355</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.870502339509755</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.8461353774361713</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.2624895590307713</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.5543124682334712</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.900331077292654</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.688393317540006</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.015603657651162</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.7176996462383007</v>
-      </c>
-      <c r="P5" t="n">
-        <v>267.4935796877041</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>429.6040643951748</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>model_35_5_4</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9289281503892453</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7196420028303301</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9328069603635136</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.917549350564699</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9324612843252162</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4752577856028931</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.874755218003458</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.8853125814299302</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.2687905857215809</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5770515835757556</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.88887631812156</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.6893894295700312</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.015648847620717</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.7187381648196803</v>
-      </c>
-      <c r="P6" t="n">
-        <v>267.4877958312541</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>429.5982805387247</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>model_35_5_5</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9286680373725743</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7189727544904789</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9297242666726808</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9155803084733268</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9297087169274756</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4769971625430822</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.879230484733648</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9259291024855872</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.2752096980108746</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.6005695518980092</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.877614770985955</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.6906498118026835</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.015706120211543</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.7200522041333275</v>
-      </c>
-      <c r="P7" t="n">
-        <v>267.480489473317</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>429.5909741807877</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>model_35_5_6</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.928354368327616</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7182715155880159</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9265343846281843</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9135783658067816</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9268672611304193</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.4790946688910318</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.883919672503327</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.9679579007442796</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.2817360667612378</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.6248469837527587</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.866552636275918</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.6921666482076638</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.015775184955387</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.721633615404352</v>
-      </c>
-      <c r="P8" t="n">
-        <v>267.4717141249915</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>429.5821988324622</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>model_35_5_7</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9279882030325896</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7175393015560286</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.9232392911509737</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9115458935149051</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.9239388530259057</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.4815432179049097</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.888815991106761</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.011372928969586</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.2883619626339571</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.6498673371483227</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.855674729054994</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.6939331508905665</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.015855808506586</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.7234753217636306</v>
-      </c>
-      <c r="P9" t="n">
-        <v>267.46151858992</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>429.5720032973907</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>model_35_5_8</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9275707661870457</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7167770801747894</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9198408499100754</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.9094847415989186</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.920925262127145</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.484334620013181</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.893912968992815</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.056149632093816</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.2950813545920995</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.6756154933429579</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.844977348079963</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.6959415349102114</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.015947721206522</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.7255692068489199</v>
-      </c>
-      <c r="P10" t="n">
-        <v>267.4499584949673</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>429.560443202438</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>model_35_5_9</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9271030638973563</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7159859917300072</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.9163411844767182</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.9073974513374212</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.9178286487766997</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.4874621473779057</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.899202981065701</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.102260030666471</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.3018859580221677</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.7020729943443194</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.834460956068875</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.6981848948365366</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.016050701527188</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.727908071251704</v>
-      </c>
-      <c r="P11" t="n">
-        <v>267.4370852759263</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>429.547569983397</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>model_35_5_10</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9265865630514241</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7151670410423419</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.9127432115555195</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.9052857366059743</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.9146515684649357</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.4909159909129217</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.90467930808504</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.149665695181933</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.3087701856593063</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.7292180060125717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.824113793733797</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.7006539737366239</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.01616442648409</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.7304822639522659</v>
-      </c>
-      <c r="P12" t="n">
-        <v>267.4229645275271</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>429.5334492349978</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>model_35_5_11</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9260225177296466</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.714321244226501</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.9090490412080873</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.9031514065663522</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.9113960086307233</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.4946877645768376</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.910335155287105</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.198338824187862</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.3157281396039066</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.7570335476465573</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.813934392952232</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.7033404329176858</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.016288619949436</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.7332830912624027</v>
-      </c>
-      <c r="P13" t="n">
-        <v>267.4076569881413</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>429.518141695612</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>model_35_5_12</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.925412052668999</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7134497765514261</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.9052613169428619</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.9009970039545794</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.9080644952672055</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.498769947248322</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.91616266364307</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.248244587718323</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.3227515304912386</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.7854980371310607</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.80391598764908</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.7062364669487989</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.016423034274716</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.7363024154578373</v>
-      </c>
-      <c r="P14" t="n">
-        <v>267.3912206341899</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>429.5017053416606</v>
+        <v>239.6059129985174</v>
       </c>
     </row>
   </sheetData>
